--- a/medicine/Enfance/Aurore_(roman)/Aurore_(roman).xlsx
+++ b/medicine/Enfance/Aurore_(roman)/Aurore_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aurore (titre original : Dawn), est le troisième tome du deuxième cycle (La Dernière Prophétie) de la série La Guerre des clans. 
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le prologue, les Clans se rendent à l'Assemblée, et ils discutent de la destruction de la forêt. Les bipèdes arrivent et détruisent les arbres majestueux.
 Les élus arrivent sur leur territoire et sont arrêtés par une patrouille du Clan du Vent. Ils sont surpris par leur maigreur. Nuage Noir rentre à son camp, suivi de Pelage d'Or, mais Pelage d'Orage suit les élus du Clan du Tonnerre. Arrivés au camp, ils découvrent Museau Cendré, qui leur explique le déménagement aux Rochers du Soleil à cause des Bipèdes. Pelage d'Orage rentre chez lui après avoir informé son père de la mort de Jolie Plume. Griffe de Ronce et Nuage d'Écureuil s'entretiennent avec Étoile de Feu au sujet de la prophétie de Minuit : il faut partir ou mourir !
@@ -551,7 +565,9 @@
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aurore est sorti en Angleterre en 2005. Il est paru en France en 2009 dans une traduction d'Aude Carlier. Publié aussi en version de poche, la version numérique est également sortie en 2013.
 </t>
